--- a/Plannification.xlsx
+++ b/Plannification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Lucas</t>
   </si>
@@ -28,25 +28,35 @@
     <t>DNS Esclave</t>
   </si>
   <si>
-    <t>Script 3 + Fichier qui contient la liste des sites web</t>
-  </si>
-  <si>
-    <t>Centraliser et sauvegarder l'historique des sites réalisés</t>
-  </si>
-  <si>
-    <t>Script pousse les fichiers sur les serveurs HTTP et DNS</t>
-  </si>
-  <si>
-    <t>Script 1 : Activer ou désactiver sites web / accessibilité</t>
-  </si>
-  <si>
-    <t>Script 2 : Créé les entrée DNS</t>
-  </si>
-  <si>
-    <t>Configuration service DHCP &amp; DNS (bind)</t>
-  </si>
-  <si>
-    <t>Configuration du Serveur Web (Apache)</t>
+    <t>Script 3 + Fichier qui contient 
+la liste des sites web</t>
+  </si>
+  <si>
+    <t>Git + Configuration service
+DHCP &amp; DNS (bind)</t>
+  </si>
+  <si>
+    <t>Script 1 : Activer ou désactiver
+sites web / accessibilité</t>
+  </si>
+  <si>
+    <t>Centraliser et sauvegarder
+l'historique des sites réalisés</t>
+  </si>
+  <si>
+    <t>Configuration du Serveur
+Web (Apache)</t>
+  </si>
+  <si>
+    <t>Script 2 : Créer les entrée DNS</t>
+  </si>
+  <si>
+    <t>Script pousse les fichiers sur
+les serveurs HTTP et DNS</t>
+  </si>
+  <si>
+    <t>Aider les autres pour les
+script et mise en commun</t>
   </si>
 </sst>
 </file>
@@ -97,11 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,14 +423,14 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -431,41 +444,43 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -473,5 +488,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>